--- a/Results/TCGA/TCGA.report.xlsx
+++ b/Results/TCGA/TCGA.report.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3028,11 +3028,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.0134228187919463</t>
+          <t>0.00675675675675676</t>
         </is>
       </c>
       <c r="O25">
-        <v>0.01342281879194631</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -3073,12 +3073,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr11,119278165,G,C</t>
+          <t>chr11,119278164,A,T</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ENST00000264033.4:c.1096-1G&gt;C</t>
+          <t>ENST00000264033.4:c.1096-2A&gt;T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3088,51 +3088,51 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Aceptor Gain</t>
+          <t>Aceptor Loss</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AlternativeSJ found in MUT samples</t>
+          <t>CanonicalSJ</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>chr11:119277845-119278189</t>
+          <t>chr11:119277845-119278165</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TCGA-AB-2914</t>
+          <t>TCGA-AB-2956</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>TCGA-AB-2914</t>
+          <t>TCGA-AB-2956</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>TCGA-AB-2914-03A</t>
+          <t>TCGA-AB-2956-03A</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>TCGA-AB-2914-03A</t>
+          <t>TCGA-AB-2956-03A</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.511770726714432</t>
+          <t>2.63157894736842</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.993288590604027</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26">
-        <v>0.006711409395973145</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -3141,22 +3141,22 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.278</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.3158</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.3158</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.3158</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>chr11:119277845-119278237</t>
+          <t>chr11:119277845-119278189</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3223,16 +3223,16 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.818833162743091</t>
+          <t>0.511770726714432</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.993288590604027</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O27">
-        <v>0.006711409395973145</v>
+        <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -3268,82 +3268,95 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PTPN11</t>
+          <t>CBL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr12,112450361,G,A</t>
+          <t>chr11,119278164,A,T</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ENST00000351677.2:c.181G&gt;A</t>
+          <t>ENST00000264033.4:c.1096-2A&gt;T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ENSP00000340944.2:p.Asp61Asn</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No validable</t>
+          <t>Aceptor Gain</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No validable</t>
+          <t>AlternativeSJ found in MUT samples</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No validable</t>
+          <t>chr11:119277845-119278189</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TCGA-AB-2802</t>
+          <t>TCGA-AB-2956</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>TCGA-AB-2802</t>
+          <t>TCGA-AB-2956</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No RNA BAM</t>
+          <t>TCGA-AB-2956-03A</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>TCGA-AB-2802-03B</t>
-        </is>
+          <t>TCGA-AB-2956-03A</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.657894736842105</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>No RNA BAM</t>
+          <t>Not RNA Called</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.438</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.4465999999999999</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.4516</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.4472</t>
+          <t>Not DNA Called</t>
         </is>
       </c>
     </row>
@@ -3355,80 +3368,367 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>CBL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>chr11,119278165,G,C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ENST00000264033.4:c.1096-1G&gt;C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Aceptor Gain</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AlternativeSJ found in MUT samples</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>chr11:119277845-119278237</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2914</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2914</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2914-03A</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2914-03A</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.818833162743091</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Not RNA Called</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.278</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TCGA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CBL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>chr11,119278164,A,T</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ENST00000264033.4:c.1096-2A&gt;T</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Aceptor Gain</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AlternativeSJ found in MUT samples</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>chr11:119277845-119278237</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2956</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2956</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2956-03A</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2956-03A</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.87719298245614</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Not RNA Called</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Not DNA Called</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Not DNA Called</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Not DNA Called</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Not DNA Called</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TCGA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PTPN11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>chr12,112450361,G,A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ENST00000351677.2:c.181G&gt;A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ENSP00000340944.2:p.Asp61Asn</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No validable</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No validable</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No validable</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2802</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2802</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>No RNA BAM</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>TCGA-AB-2802-03B</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No RNA BAM</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.438</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.4465999999999999</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TCGA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>WT1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>chr11,32396364,G,T</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>ENST00000332351.3:c.1142C&gt;A</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>ENSP00000331327.3:p.Ser381Ter</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>No validable</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>No validable</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>No validable</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>TCGA-AB-2827</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>TCGA-AB-2827</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>No RNA BAM</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>TCGA-AB-2827-03B</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>No RNA BAM</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>0.433</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>0.4622</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>0.4521</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Not DNA called</t>
         </is>
